--- a/DATA_goal/Junction_Flooding_430.xlsx
+++ b/DATA_goal/Junction_Flooding_430.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.85</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9</v>
+        <v>89.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.9</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.04</v>
+        <v>40.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.86</v>
+        <v>158.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.04</v>
+        <v>30.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.21</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.69</v>
+        <v>36.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9</v>
+        <v>89.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.49</v>
+        <v>24.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_430.xlsx
+++ b/DATA_goal/Junction_Flooding_430.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45111.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45111.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.9</v>
+        <v>19.734</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.79</v>
+        <v>14.753</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.588</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.73</v>
+        <v>43.398</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.54</v>
+        <v>37.041</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.8</v>
+        <v>15.615</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.77</v>
+        <v>51.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.83</v>
+        <v>23.895</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.29</v>
+        <v>10.895</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.65</v>
+        <v>16.684</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.32</v>
+        <v>18.933</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.47</v>
+        <v>18.299</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.35</v>
+        <v>5.999</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.39</v>
+        <v>15.651</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>22.36</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.85</v>
+        <v>12.757</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.297</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.918</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.95</v>
+        <v>232.427</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.9</v>
+        <v>43.203</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.9</v>
+        <v>14.422</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.53</v>
+        <v>29.377</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.27</v>
+        <v>15.258</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.985</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.69</v>
+        <v>26.585</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.21</v>
+        <v>12.795</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.82</v>
+        <v>11.434</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.62</v>
+        <v>13.462</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.48</v>
+        <v>19.514</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.059</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.11</v>
+        <v>47.493</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.14</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.38</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45111.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.74</v>
+        <v>16.547</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.24</v>
+        <v>12.385</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.17</v>
+        <v>0.442</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.3</v>
+        <v>36.377</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.31</v>
+        <v>30.611</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.49</v>
+        <v>13.108</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.4</v>
+        <v>51.269</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.82</v>
+        <v>20.042</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.51</v>
+        <v>9.134</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.63</v>
+        <v>13.794</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.32</v>
+        <v>15.374</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.83</v>
+        <v>15.333</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.73</v>
+        <v>4.775</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.9</v>
+        <v>13.026</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.33</v>
+        <v>18.753</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.42</v>
+        <v>10.747</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.196</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.711</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.62</v>
+        <v>192.665</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.44</v>
+        <v>36.347</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.06</v>
+        <v>12.014</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.21</v>
+        <v>24.705</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.74</v>
+        <v>12.825</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.48</v>
+        <v>2.267</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.55</v>
+        <v>25.059</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>10.701</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.98</v>
+        <v>9.552</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>11.239</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.78</v>
+        <v>16.004</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.664</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.89</v>
+        <v>47.327</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.57</v>
+        <v>7.186</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>14.923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45111.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.02</v>
+        <v>24.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.97</v>
+        <v>18.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.76</v>
+        <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.14</v>
+        <v>44.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.05</v>
+        <v>19.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.97</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.84</v>
+        <v>29.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.44</v>
+        <v>13.33</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.11</v>
+        <v>19.98</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.26</v>
+        <v>21.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.52</v>
+        <v>22.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.25</v>
+        <v>6.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>19.06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>27.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.6</v>
+        <v>15.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.89</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.97</v>
+        <v>284.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.97</v>
+        <v>53.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>17.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.87</v>
+        <v>36.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.28</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.87</v>
+        <v>2.9</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.38</v>
+        <v>36.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>15.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.71</v>
+        <v>13.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.52</v>
+        <v>16.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.49</v>
+        <v>22.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.88</v>
+        <v>67.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.23</v>
+        <v>10.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
+        <v>21.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_430.xlsx
+++ b/DATA_goal/Junction_Flooding_430.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45111.50694444445</v>
+        <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45111.51388888889</v>
+        <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.734</v>
+        <v>7.904</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.753</v>
+        <v>5.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.588</v>
+        <v>1.368</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.398</v>
+        <v>17.728</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.041</v>
+        <v>13.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.615</v>
+        <v>5.798</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.47</v>
+        <v>23.765</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.895</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.895</v>
+        <v>4.294</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.684</v>
+        <v>5.649</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.933</v>
+        <v>7.317</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.299</v>
+        <v>7.47</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.999</v>
+        <v>2.346</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.651</v>
+        <v>6.391</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.36</v>
+        <v>8.782</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.757</v>
+        <v>5.847</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.297</v>
+        <v>1.073</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.918</v>
+        <v>0.424</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>232.427</v>
+        <v>89.95399999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.203</v>
+        <v>17.9</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.422</v>
+        <v>5.899</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.377</v>
+        <v>11.529</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.258</v>
+        <v>6.265</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.985</v>
+        <v>0.944</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.585</v>
+        <v>12.695</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.795</v>
+        <v>5.211</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.434</v>
+        <v>4.821</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.462</v>
+        <v>5.624</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.514</v>
+        <v>7.482</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.059</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.493</v>
+        <v>22.114</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.731999999999999</v>
+        <v>3.141</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.789</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45111.52083333334</v>
+        <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.547</v>
+        <v>13.744</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.385</v>
+        <v>10.238</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.442</v>
+        <v>1.169</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.377</v>
+        <v>30.297</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.611</v>
+        <v>24.313</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.108</v>
+        <v>10.489</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.269</v>
+        <v>40.396</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.042</v>
+        <v>16.82</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.134</v>
+        <v>7.513</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.794</v>
+        <v>10.634</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.374</v>
+        <v>12.317</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.333</v>
+        <v>12.832</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.775</v>
+        <v>3.731</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.026</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.753</v>
+        <v>15.327</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.747</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.196</v>
+        <v>0.802</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.711</v>
+        <v>0.502</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.665</v>
+        <v>158.618</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.347</v>
+        <v>30.437</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.014</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.705</v>
+        <v>20.208</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.825</v>
+        <v>10.743</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.267</v>
+        <v>1.477</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.059</v>
+        <v>20.554</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.701</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.552</v>
+        <v>7.977</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.239</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.004</v>
+        <v>12.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.664</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>47.327</v>
+        <v>36.891</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.186</v>
+        <v>5.573</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.923</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45111.52777777778</v>
+        <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.31</v>
+        <v>8.021000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.23</v>
+        <v>5.965</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.792</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.19</v>
+        <v>17.762</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>44.31</v>
+        <v>14.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.21</v>
+        <v>6.046</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>73.65000000000001</v>
+        <v>26.972</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.45</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.33</v>
+        <v>4.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.98</v>
+        <v>6.107</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.85</v>
+        <v>7.258</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.48</v>
+        <v>7.522</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.55</v>
+        <v>2.246</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.06</v>
+        <v>6.391</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.39</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.79</v>
+        <v>5.599</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.596</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.33</v>
+        <v>89.968</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.25</v>
+        <v>17.974</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.59</v>
+        <v>5.899</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.15</v>
+        <v>11.873</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.88</v>
+        <v>6.283</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.865</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.05</v>
+        <v>13.378</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.62</v>
+        <v>5.211</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.83</v>
+        <v>4.713</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.28</v>
+        <v>5.524</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.89</v>
+        <v>7.491</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>67.27</v>
+        <v>24.878</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.28</v>
+        <v>3.231</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.94</v>
+        <v>7.376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_430.xlsx
+++ b/DATA_goal/Junction_Flooding_430.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45111.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45111.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.904</v>
+        <v>19.734</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.79</v>
+        <v>14.753</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.368</v>
+        <v>0.588</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.728</v>
+        <v>43.398</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.54</v>
+        <v>37.041</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.798</v>
+        <v>15.615</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.765</v>
+        <v>51.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.835000000000001</v>
+        <v>23.895</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.294</v>
+        <v>10.895</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.649</v>
+        <v>16.684</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.317</v>
+        <v>18.933</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.47</v>
+        <v>18.299</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.346</v>
+        <v>5.999</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.391</v>
+        <v>15.651</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.782</v>
+        <v>22.36</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.847</v>
+        <v>12.757</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.073</v>
+        <v>0.297</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.424</v>
+        <v>0.918</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.95399999999999</v>
+        <v>232.427</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.9</v>
+        <v>43.203</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.899</v>
+        <v>14.422</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.529</v>
+        <v>29.377</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.265</v>
+        <v>15.258</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.944</v>
+        <v>2.985</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.695</v>
+        <v>26.585</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.211</v>
+        <v>12.795</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.821</v>
+        <v>11.434</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.624</v>
+        <v>13.462</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.482</v>
+        <v>19.514</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>1.059</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.114</v>
+        <v>47.493</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.141</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.376</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45111.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.744</v>
+        <v>16.547</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.238</v>
+        <v>12.385</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.169</v>
+        <v>0.442</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.297</v>
+        <v>36.377</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.313</v>
+        <v>30.611</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.489</v>
+        <v>13.108</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.396</v>
+        <v>51.269</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.82</v>
+        <v>20.042</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.513</v>
+        <v>9.134</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.634</v>
+        <v>13.794</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.317</v>
+        <v>15.374</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.832</v>
+        <v>15.333</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.731</v>
+        <v>4.775</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.903</v>
+        <v>13.026</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.327</v>
+        <v>18.753</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.425000000000001</v>
+        <v>10.747</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.802</v>
+        <v>0.196</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.502</v>
+        <v>0.711</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.618</v>
+        <v>192.665</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.437</v>
+        <v>36.347</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.064</v>
+        <v>12.014</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.208</v>
+        <v>24.705</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.743</v>
+        <v>12.825</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.477</v>
+        <v>2.267</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.554</v>
+        <v>25.059</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>10.701</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.977</v>
+        <v>9.552</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>11.239</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.78</v>
+        <v>16.004</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.664</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.891</v>
+        <v>47.327</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.573</v>
+        <v>7.186</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.582</v>
+        <v>14.923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45111.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.021000000000001</v>
+        <v>24.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.965</v>
+        <v>18.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.792</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.762</v>
+        <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.14</v>
+        <v>44.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.046</v>
+        <v>19.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.972</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.842000000000001</v>
+        <v>29.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.44</v>
+        <v>13.33</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.107</v>
+        <v>19.98</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.258</v>
+        <v>21.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.522</v>
+        <v>22.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.246</v>
+        <v>6.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.391</v>
+        <v>19.06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.965999999999999</v>
+        <v>27.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.599</v>
+        <v>15.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.596</v>
+        <v>0.24</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.89</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.968</v>
+        <v>284.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.974</v>
+        <v>53.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.899</v>
+        <v>17.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.873</v>
+        <v>36.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.283</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.865</v>
+        <v>2.9</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.378</v>
+        <v>36.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.211</v>
+        <v>15.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.713</v>
+        <v>13.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.524</v>
+        <v>16.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.491</v>
+        <v>22.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.878</v>
+        <v>67.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.231</v>
+        <v>10.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
+        <v>21.94</v>
       </c>
     </row>
   </sheetData>
